--- a/prodinfo/test/debug/output/res20260125.xlsx
+++ b/prodinfo/test/debug/output/res20260125.xlsx
@@ -427,7 +427,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2026-01-25 05:31:01</v>
+        <v>2026-01-25 21:41:24</v>
       </c>
       <c r="B2" t="str">
         <v>沙特</v>
@@ -450,7 +450,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2026-01-25 05:31:09</v>
+        <v>2026-01-25 21:41:28</v>
       </c>
       <c r="B3" t="str">
         <v>沙特</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2026-01-25 05:31:15</v>
+        <v>2026-01-25 21:41:33</v>
       </c>
       <c r="B4" t="str">
         <v>沙特</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2026-01-25 05:31:21</v>
+        <v>2026-01-25 21:41:37</v>
       </c>
       <c r="B5" t="str">
         <v>沙特</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2026-01-25 05:31:29</v>
+        <v>2026-01-25 21:41:42</v>
       </c>
       <c r="B6" t="str">
         <v>沙特</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2026-01-25 05:31:35</v>
+        <v>2026-01-25 21:41:48</v>
       </c>
       <c r="B7" t="str">
         <v>沙特</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2026-01-25 05:31:41</v>
+        <v>2026-01-25 21:41:51</v>
       </c>
       <c r="B8" t="str">
         <v>沙特</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2026-01-25 05:31:47</v>
+        <v>2026-01-25 21:41:55</v>
       </c>
       <c r="B9" t="str">
         <v>沙特</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2026-01-25 05:31:51</v>
+        <v>2026-01-25 21:41:58</v>
       </c>
       <c r="B10" t="str">
         <v>沙特</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2026-01-25 05:31:57</v>
+        <v>2026-01-25 21:42:00</v>
       </c>
       <c r="B11" t="str">
         <v>沙特</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2026-01-25 05:32:05</v>
+        <v>2026-01-25 21:42:06</v>
       </c>
       <c r="B12" t="str">
         <v>沙特</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2026-01-25 05:32:09</v>
+        <v>2026-01-25 21:42:09</v>
       </c>
       <c r="B13" t="str">
         <v>沙特</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2026-01-25 05:32:16</v>
+        <v>2026-01-25 21:42:12</v>
       </c>
       <c r="B14" t="str">
         <v>沙特</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2026-01-25 05:32:23</v>
+        <v>2026-01-25 21:42:17</v>
       </c>
       <c r="B15" t="str">
         <v>沙特</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2026-01-25 05:32:31</v>
+        <v>2026-01-25 21:42:20</v>
       </c>
       <c r="B16" t="str">
         <v>沙特</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2026-01-25 05:32:39</v>
+        <v>2026-01-25 21:42:22</v>
       </c>
       <c r="B17" t="str">
         <v>沙特</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2026-01-25 05:32:45</v>
+        <v>2026-01-25 21:42:29</v>
       </c>
       <c r="B18" t="str">
         <v>沙特</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2026-01-25 05:32:50</v>
+        <v>2026-01-25 21:42:32</v>
       </c>
       <c r="B19" t="str">
         <v>沙特</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2026-01-25 05:33:07</v>
+        <v>2026-01-25 21:42:36</v>
       </c>
       <c r="B20" t="str">
         <v>沙特</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2026-01-25 05:33:12</v>
+        <v>2026-01-25 21:42:39</v>
       </c>
       <c r="B21" t="str">
         <v>沙特</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2026-01-25 05:33:17</v>
+        <v>2026-01-25 21:42:41</v>
       </c>
       <c r="B22" t="str">
         <v>沙特</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2026-01-25 05:33:25</v>
+        <v>2026-01-25 21:42:44</v>
       </c>
       <c r="B23" t="str">
         <v>沙特</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2026-01-25 05:33:33</v>
+        <v>2026-01-25 21:42:49</v>
       </c>
       <c r="B24" t="str">
         <v>沙特</v>
@@ -956,7 +956,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2026-01-25 05:33:38</v>
+        <v>2026-01-25 21:42:52</v>
       </c>
       <c r="B25" t="str">
         <v>沙特</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2026-01-25 05:33:51</v>
+        <v>2026-01-25 21:42:55</v>
       </c>
       <c r="B26" t="str">
         <v>沙特</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2026-01-25 05:33:59</v>
+        <v>2026-01-25 21:43:00</v>
       </c>
       <c r="B27" t="str">
         <v>沙特</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2026-01-25 05:34:06</v>
+        <v>2026-01-25 21:43:04</v>
       </c>
       <c r="B28" t="str">
         <v>沙特</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2026-01-25 05:34:10</v>
+        <v>2026-01-25 21:43:09</v>
       </c>
       <c r="B29" t="str">
         <v>沙特</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2026-01-25 05:34:15</v>
+        <v>2026-01-25 21:43:15</v>
       </c>
       <c r="B30" t="str">
         <v>沙特</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2026-01-25 05:34:19</v>
+        <v>2026-01-25 21:43:21</v>
       </c>
       <c r="B31" t="str">
         <v>沙特</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2026-01-25 05:34:25</v>
+        <v>2026-01-25 21:43:27</v>
       </c>
       <c r="B32" t="str">
         <v>沙特</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2026-01-25 05:34:29</v>
+        <v>2026-01-25 21:43:32</v>
       </c>
       <c r="B33" t="str">
         <v>沙特</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2026-01-25 05:34:33</v>
+        <v>2026-01-25 21:43:38</v>
       </c>
       <c r="B34" t="str">
         <v>沙特</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2026-01-25 05:34:37</v>
+        <v>2026-01-25 21:43:45</v>
       </c>
       <c r="B35" t="str">
         <v>沙特</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2026-01-25 05:34:41</v>
+        <v>2026-01-25 21:43:51</v>
       </c>
       <c r="B36" t="str">
         <v>沙特</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2026-01-25 05:34:48</v>
+        <v>2026-01-25 21:43:58</v>
       </c>
       <c r="B37" t="str">
         <v>沙特</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2026-01-25 05:34:56</v>
+        <v>2026-01-25 21:44:02</v>
       </c>
       <c r="B38" t="str">
         <v>沙特</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2026-01-25 05:35:06</v>
+        <v>2026-01-25 21:44:05</v>
       </c>
       <c r="B39" t="str">
         <v>沙特</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2026-01-25 05:35:13</v>
+        <v>2026-01-25 21:44:11</v>
       </c>
       <c r="B40" t="str">
         <v>沙特</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2026-01-25 05:35:17</v>
+        <v>2026-01-25 21:44:16</v>
       </c>
       <c r="B41" t="str">
         <v>沙特</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2026-01-25 05:35:27</v>
+        <v>2026-01-25 21:44:25</v>
       </c>
       <c r="B42" t="str">
         <v>沙特</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2026-01-25 05:35:43</v>
+        <v>2026-01-25 21:44:31</v>
       </c>
       <c r="B43" t="str">
         <v>沙特</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2026-01-25 05:35:48</v>
+        <v>2026-01-25 21:44:37</v>
       </c>
       <c r="B44" t="str">
         <v>沙特</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2026-01-25 05:35:54</v>
+        <v>2026-01-25 21:44:43</v>
       </c>
       <c r="B45" t="str">
         <v>沙特</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2026-01-25 05:36:01</v>
+        <v>2026-01-25 21:44:47</v>
       </c>
       <c r="B46" t="str">
         <v>沙特</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2026-01-25 05:36:11</v>
+        <v>2026-01-25 21:44:54</v>
       </c>
       <c r="B47" t="str">
         <v>沙特</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2026-01-25 05:36:58</v>
+        <v>2026-01-25 21:44:59</v>
       </c>
       <c r="B48" t="str">
         <v>沙特</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2026-01-25 05:38:09</v>
+        <v>2026-01-25 21:45:06</v>
       </c>
       <c r="B49" t="str">
         <v>沙特</v>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2026-01-25 05:38:16</v>
+        <v>2026-01-25 21:45:10</v>
       </c>
       <c r="B50" t="str">
         <v>沙特</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2026-01-25 05:38:22</v>
+        <v>2026-01-25 21:45:17</v>
       </c>
       <c r="B51" t="str">
         <v>沙特</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2026-01-25 05:38:28</v>
+        <v>2026-01-25 21:45:20</v>
       </c>
       <c r="B52" t="str">
         <v>沙特</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2026-01-25 05:38:33</v>
+        <v>2026-01-25 21:45:28</v>
       </c>
       <c r="B53" t="str">
         <v>沙特</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2026-01-25 05:38:38</v>
+        <v>2026-01-25 21:45:32</v>
       </c>
       <c r="B54" t="str">
         <v>沙特</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2026-01-25 05:38:45</v>
+        <v>2026-01-25 21:45:39</v>
       </c>
       <c r="B55" t="str">
         <v>沙特</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2026-01-25 05:38:53</v>
+        <v>2026-01-25 21:45:45</v>
       </c>
       <c r="B56" t="str">
         <v>沙特</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2026-01-25 05:38:59</v>
+        <v>2026-01-25 21:45:50</v>
       </c>
       <c r="B57" t="str">
         <v>沙特</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2026-01-25 05:39:05</v>
+        <v>2026-01-25 21:45:57</v>
       </c>
       <c r="B58" t="str">
         <v>沙特</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2026-01-25 05:39:12</v>
+        <v>2026-01-25 21:46:04</v>
       </c>
       <c r="B59" t="str">
         <v>沙特</v>
